--- a/public/templates/reporte.xlsx
+++ b/public/templates/reporte.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -89,9 +89,6 @@
 031</t>
   </si>
   <si>
-    <t xml:space="preserve">Región VIII Petén   </t>
-  </si>
-  <si>
     <t>Subsecretaría de Coordinación y Administración</t>
   </si>
   <si>
@@ -104,30 +101,8 @@
     <t xml:space="preserve">REGIONALES </t>
   </si>
   <si>
-    <t xml:space="preserve">Región VII noroccidente /
-Huehuetenango </t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL 
 EF. LOTUS  12 ENE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región III Nor-oriente / Zacapa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región IV Sur-oriente / Jutiapa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región VI Suroccidente /  Quetzaltenango </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región I metropolitana - Guatemala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región II Norte  / Cobán </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Región V Central / Escuintla </t>
   </si>
   <si>
     <t>11. SIN REPORTAR</t>
@@ -155,153 +130,14 @@
     <t xml:space="preserve">     TOTAL REPORTADO </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5. Permiso Autorizado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Jorge Luis Mejicanos Reyes 021 / deceso de padre 10MAR2024  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Suspendidos por el IGSS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sergio Estuardo Solares García 021 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /  suspendido por cirugía del - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-9. Ausente  (Justificar)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- José Esteban Morales Barrientos 021 / permiso por cumpleaños 
-- Oscar Fernando Caal Tut 031 / descanso por turno </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">DISPONIBILIDAD </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Suspendidos por el IGSS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Anderson Osiel  Gutiérrez Tzir  031 / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> accid. en motocicleta 17 NOV 2023 
-1ra. Suspensión del 17 al 30 Nov. 2023
-2da. Suspensión del 01 Dic. 2023 Al 24 Ene 2024 
-3ra Suspensión 25 Ene 2024 al 25 Feb 2024</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4ta. Suspensión 26 Feb 2024 al 07 Mar 2024 
-5ta. suspensión 08 Mar2024 al 04 Abr 2024 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">9. Ausente  (Justificar)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Osvaldo Mauricio Guerra Quixchàn 021 </t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="60">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,13 +353,6 @@
     <font>
       <b/>
       <sz val="25"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="25"/>
       <color theme="0"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
@@ -662,21 +491,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="25"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="25"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,7 +511,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,12 +574,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -771,12 +581,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1285,6 +1089,21 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -1301,7 +1120,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1444,9 +1263,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,88 +1287,88 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,220 +1377,207 @@
     <xf numFmtId="0" fontId="28" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,7 +1902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2115,7 +1918,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
+      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -2146,9 +1949,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="72.75" customHeight="1" thickBot="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="85" t="s">
-        <v>40</v>
+      <c r="A1" s="66"/>
+      <c r="B1" s="84" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -2173,13 +1976,13 @@
       <c r="W1" s="39"/>
       <c r="X1" s="39"/>
       <c r="Y1" s="39"/>
-      <c r="Z1" s="70"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:26" ht="137.25" customHeight="1" thickBot="1">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -2201,1932 +2004,1517 @@
         <v>11</v>
       </c>
       <c r="I2" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="61" t="s">
+      <c r="L2" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="83" t="s">
+      <c r="Y2" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="136"/>
+    </row>
+    <row r="3" spans="1:26" s="44" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A3" s="87"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="88">
         <v>1</v>
       </c>
-      <c r="N2" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="139"/>
-    </row>
-    <row r="3" spans="1:26" s="44" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="89">
+      <c r="D3" s="88">
         <v>1</v>
       </c>
-      <c r="D3" s="89">
+      <c r="E3" s="88">
+        <v>0</v>
+      </c>
+      <c r="F3" s="88">
         <v>1</v>
       </c>
-      <c r="E3" s="89">
-        <v>0</v>
-      </c>
-      <c r="F3" s="89">
-        <v>1</v>
-      </c>
-      <c r="G3" s="89">
-        <v>0</v>
-      </c>
-      <c r="H3" s="90">
+      <c r="G3" s="88">
+        <v>0</v>
+      </c>
+      <c r="H3" s="89">
         <f t="shared" ref="H3:H18" si="0">SUM(B3:F3)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91">
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90">
         <f>SUM(H3:I3)</f>
         <v>3</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="85">
         <v>3</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="124">
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="123">
         <f t="shared" ref="X3:X33" si="1">SUM(M3:W3)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="147">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="180"/>
+      <c r="Y3" s="139">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="171"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98">
-        <v>0</v>
-      </c>
-      <c r="D4" s="98">
-        <v>0</v>
-      </c>
-      <c r="E4" s="98">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97">
+        <v>0</v>
+      </c>
+      <c r="D4" s="97">
+        <v>0</v>
+      </c>
+      <c r="E4" s="97">
         <v>1</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="97">
         <v>2</v>
       </c>
-      <c r="G4" s="98">
-        <v>0</v>
-      </c>
-      <c r="H4" s="99">
+      <c r="G4" s="97">
+        <v>0</v>
+      </c>
+      <c r="H4" s="98">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99">
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98">
         <f t="shared" ref="K4:K14" si="2">SUM(H4:I4)</f>
         <v>3</v>
       </c>
-      <c r="L4" s="100">
+      <c r="L4" s="99">
         <v>3</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="124">
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="157"/>
+      <c r="Y4" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="172"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98">
-        <v>0</v>
-      </c>
-      <c r="D5" s="98">
-        <v>0</v>
-      </c>
-      <c r="E5" s="98">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97">
+        <v>0</v>
+      </c>
+      <c r="D5" s="97">
+        <v>0</v>
+      </c>
+      <c r="E5" s="97">
         <v>2</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="97">
         <v>4</v>
       </c>
-      <c r="G5" s="98">
-        <v>0</v>
-      </c>
-      <c r="H5" s="99">
+      <c r="G5" s="97">
+        <v>0</v>
+      </c>
+      <c r="H5" s="98">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99">
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L5" s="100">
+      <c r="L5" s="99">
         <v>6</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="124">
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="158"/>
-    </row>
-    <row r="6" spans="1:26" s="92" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98">
-        <v>0</v>
-      </c>
-      <c r="D6" s="98">
-        <v>0</v>
-      </c>
-      <c r="E6" s="98">
+      <c r="Y5" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="148"/>
+    </row>
+    <row r="6" spans="1:26" s="91" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97">
+        <v>0</v>
+      </c>
+      <c r="D6" s="97">
+        <v>0</v>
+      </c>
+      <c r="E6" s="97">
         <v>1</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="97">
         <v>1</v>
       </c>
-      <c r="G6" s="98">
-        <v>0</v>
-      </c>
-      <c r="H6" s="99">
+      <c r="G6" s="97">
+        <v>0</v>
+      </c>
+      <c r="H6" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99">
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L6" s="100">
+      <c r="L6" s="99">
         <v>2</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="124">
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="158"/>
+      <c r="Y6" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="148"/>
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98">
-        <v>0</v>
-      </c>
-      <c r="D7" s="98">
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97">
+        <v>0</v>
+      </c>
+      <c r="D7" s="97">
         <v>1</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="97">
         <v>1</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="97">
         <v>1</v>
       </c>
-      <c r="G7" s="98">
-        <v>0</v>
-      </c>
-      <c r="H7" s="99">
+      <c r="G7" s="97">
+        <v>0</v>
+      </c>
+      <c r="H7" s="98">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99">
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L7" s="100">
+      <c r="L7" s="99">
         <v>3</v>
       </c>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="124">
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="156"/>
-    </row>
-    <row r="8" spans="1:26" s="104" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98">
-        <v>0</v>
-      </c>
-      <c r="D8" s="98">
-        <v>0</v>
-      </c>
-      <c r="E8" s="98">
+      <c r="Y7" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="151"/>
+    </row>
+    <row r="8" spans="1:26" s="103" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97">
+        <v>0</v>
+      </c>
+      <c r="D8" s="97">
+        <v>0</v>
+      </c>
+      <c r="E8" s="97">
         <v>1</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="97">
         <v>1</v>
       </c>
-      <c r="G8" s="98">
-        <v>0</v>
-      </c>
-      <c r="H8" s="99">
+      <c r="G8" s="97">
+        <v>0</v>
+      </c>
+      <c r="H8" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99">
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L8" s="100">
+      <c r="L8" s="99">
         <v>2</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="124">
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="156"/>
-    </row>
-    <row r="9" spans="1:26" s="92" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98">
-        <v>0</v>
-      </c>
-      <c r="D9" s="98">
-        <v>0</v>
-      </c>
-      <c r="E9" s="98">
+      <c r="Y8" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="151"/>
+    </row>
+    <row r="9" spans="1:26" s="91" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97">
+        <v>0</v>
+      </c>
+      <c r="D9" s="97">
+        <v>0</v>
+      </c>
+      <c r="E9" s="97">
         <v>1</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="97">
         <v>8</v>
       </c>
-      <c r="G9" s="98">
-        <v>0</v>
-      </c>
-      <c r="H9" s="99">
+      <c r="G9" s="97">
+        <v>0</v>
+      </c>
+      <c r="H9" s="98">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99">
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L9" s="100">
+      <c r="L9" s="99">
         <v>9</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="100"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="124">
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="159"/>
+      <c r="Y9" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="149"/>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="98">
-        <v>0</v>
-      </c>
-      <c r="D10" s="98">
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97">
+        <v>0</v>
+      </c>
+      <c r="D10" s="97">
         <v>1</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="97">
         <v>1</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="97">
         <v>5</v>
       </c>
-      <c r="G10" s="98">
-        <v>0</v>
-      </c>
-      <c r="H10" s="99">
+      <c r="G10" s="97">
+        <v>0</v>
+      </c>
+      <c r="H10" s="98">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99">
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98">
         <v>7</v>
       </c>
-      <c r="L10" s="100">
+      <c r="L10" s="99">
         <v>6</v>
       </c>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="124">
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="160"/>
-    </row>
-    <row r="11" spans="1:26" s="128" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="150">
+      <c r="Y10" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="169"/>
+    </row>
+    <row r="11" spans="1:26" s="125" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A11" s="145"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142">
         <v>1</v>
       </c>
-      <c r="D11" s="150">
+      <c r="D11" s="142">
         <v>1</v>
       </c>
-      <c r="E11" s="150">
-        <v>0</v>
-      </c>
-      <c r="F11" s="150">
+      <c r="E11" s="142">
+        <v>0</v>
+      </c>
+      <c r="F11" s="142">
         <v>1</v>
       </c>
-      <c r="G11" s="150">
-        <v>0</v>
-      </c>
-      <c r="H11" s="151">
+      <c r="G11" s="142">
+        <v>0</v>
+      </c>
+      <c r="H11" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151">
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143">
         <f>SUM(H11:I11)</f>
         <v>3</v>
       </c>
-      <c r="L11" s="152">
+      <c r="L11" s="144">
         <v>3</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="124">
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="146"/>
+      <c r="X11" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="148">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="161"/>
-    </row>
-    <row r="12" spans="1:26" s="103" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98">
-        <v>0</v>
-      </c>
-      <c r="D12" s="98">
+      <c r="Y11" s="140">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="173"/>
+    </row>
+    <row r="12" spans="1:26" s="102" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97">
+        <v>0</v>
+      </c>
+      <c r="D12" s="97">
         <v>4</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="97">
         <v>3</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="97">
         <v>16</v>
       </c>
-      <c r="G12" s="98">
-        <v>0</v>
-      </c>
-      <c r="H12" s="99">
+      <c r="G12" s="97">
+        <v>0</v>
+      </c>
+      <c r="H12" s="98">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99">
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98">
         <v>25</v>
       </c>
-      <c r="L12" s="100">
+      <c r="L12" s="99">
         <v>23</v>
       </c>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="124">
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="162"/>
-    </row>
-    <row r="13" spans="1:26" s="92" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98">
-        <v>0</v>
-      </c>
-      <c r="D13" s="98">
+      <c r="Y12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="150"/>
+    </row>
+    <row r="13" spans="1:26" s="91" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97">
+        <v>0</v>
+      </c>
+      <c r="D13" s="97">
         <v>12</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="97">
         <v>2</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="97">
         <v>47</v>
       </c>
-      <c r="G13" s="98">
-        <v>0</v>
-      </c>
-      <c r="H13" s="99">
+      <c r="G13" s="97">
+        <v>0</v>
+      </c>
+      <c r="H13" s="98">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="I13" s="99">
-        <v>0</v>
-      </c>
-      <c r="J13" s="99">
+      <c r="I13" s="98">
+        <v>0</v>
+      </c>
+      <c r="J13" s="98">
         <v>52</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="98">
         <f>SUM(H13:I13)</f>
         <v>61</v>
       </c>
-      <c r="L13" s="100">
+      <c r="L13" s="99">
         <v>51</v>
       </c>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="124">
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="163"/>
+      <c r="Y13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="151"/>
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116">
-        <v>0</v>
-      </c>
-      <c r="D14" s="116">
+      <c r="A14" s="113"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115">
+        <v>0</v>
+      </c>
+      <c r="D14" s="115">
         <v>8</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="115">
         <v>2</v>
       </c>
-      <c r="F14" s="116">
+      <c r="F14" s="115">
         <v>6</v>
       </c>
-      <c r="G14" s="116">
-        <v>0</v>
-      </c>
-      <c r="H14" s="117">
+      <c r="G14" s="115">
+        <v>0</v>
+      </c>
+      <c r="H14" s="116">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117">
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L14" s="118">
+      <c r="L14" s="117">
         <v>15</v>
       </c>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="124">
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="119">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="160"/>
+      <c r="Y14" s="118">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="169"/>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98">
-        <v>0</v>
-      </c>
-      <c r="D15" s="98">
+      <c r="A15" s="119"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97">
+        <v>0</v>
+      </c>
+      <c r="D15" s="97">
         <v>19</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="97">
         <v>3</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="97">
         <v>54</v>
       </c>
-      <c r="G15" s="98">
-        <v>0</v>
-      </c>
-      <c r="H15" s="99">
+      <c r="G15" s="97">
+        <v>0</v>
+      </c>
+      <c r="H15" s="98">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="I15" s="99">
-        <v>0</v>
-      </c>
-      <c r="J15" s="99">
+      <c r="I15" s="98">
+        <v>0</v>
+      </c>
+      <c r="J15" s="98">
         <v>56</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="98">
         <f>SUM(H15:I15)</f>
         <v>76</v>
       </c>
-      <c r="L15" s="100">
+      <c r="L15" s="99">
         <v>56</v>
       </c>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="124">
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="123">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="164"/>
+      <c r="Y15" s="122">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="152"/>
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="98">
-        <v>0</v>
-      </c>
-      <c r="D16" s="98">
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97">
+        <v>0</v>
+      </c>
+      <c r="D16" s="97">
         <v>4</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="97">
         <v>2</v>
       </c>
-      <c r="F16" s="98">
+      <c r="F16" s="97">
         <v>15</v>
       </c>
-      <c r="G16" s="98">
-        <v>0</v>
-      </c>
-      <c r="H16" s="99">
+      <c r="G16" s="97">
+        <v>0</v>
+      </c>
+      <c r="H16" s="98">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="98">
         <v>1</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="98">
         <v>20</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="98">
         <f>SUM(H16:I16)</f>
         <v>22</v>
       </c>
-      <c r="L16" s="100">
+      <c r="L16" s="99">
         <v>20</v>
       </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="124">
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="159"/>
+      <c r="Y16" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="149"/>
     </row>
     <row r="17" spans="1:27" s="3" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98">
-        <v>0</v>
-      </c>
-      <c r="D17" s="98">
+      <c r="A17" s="95"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97">
+        <v>0</v>
+      </c>
+      <c r="D17" s="97">
         <v>7</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="97">
         <v>2</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="97">
         <v>10</v>
       </c>
-      <c r="G17" s="98">
-        <v>0</v>
-      </c>
-      <c r="H17" s="99">
+      <c r="G17" s="97">
+        <v>0</v>
+      </c>
+      <c r="H17" s="98">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99">
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98">
         <f t="shared" ref="K17" si="3">SUM(H17:I17)</f>
         <v>19</v>
       </c>
-      <c r="L17" s="100">
+      <c r="L17" s="99">
         <v>19</v>
       </c>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="124">
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="163"/>
-    </row>
-    <row r="18" spans="1:27" s="129" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A18" s="153"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="150">
+      <c r="Y17" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="151"/>
+    </row>
+    <row r="18" spans="1:27" s="126" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142">
         <v>1</v>
       </c>
-      <c r="D18" s="150">
-        <v>0</v>
-      </c>
-      <c r="E18" s="150">
-        <v>0</v>
-      </c>
-      <c r="F18" s="150">
-        <v>0</v>
-      </c>
-      <c r="G18" s="150">
-        <v>0</v>
-      </c>
-      <c r="H18" s="151">
+      <c r="D18" s="142">
+        <v>0</v>
+      </c>
+      <c r="E18" s="142">
+        <v>0</v>
+      </c>
+      <c r="F18" s="142">
+        <v>0</v>
+      </c>
+      <c r="G18" s="142">
+        <v>0</v>
+      </c>
+      <c r="H18" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151">
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143">
         <f>SUM(H18:I18)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="152">
+      <c r="L18" s="144">
         <v>1</v>
       </c>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="152"/>
-      <c r="U18" s="152"/>
-      <c r="V18" s="152"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="124">
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="146"/>
+      <c r="X18" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="148">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="161"/>
-    </row>
-    <row r="19" spans="1:27" s="105" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98">
-        <v>0</v>
-      </c>
-      <c r="D19" s="98">
+      <c r="Y18" s="140">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="173"/>
+    </row>
+    <row r="19" spans="1:27" s="104" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97">
+        <v>0</v>
+      </c>
+      <c r="D19" s="97">
         <v>9</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="97">
         <v>2</v>
       </c>
-      <c r="F19" s="98">
+      <c r="F19" s="97">
         <v>9</v>
       </c>
-      <c r="G19" s="98">
-        <v>0</v>
-      </c>
-      <c r="H19" s="99">
+      <c r="G19" s="97">
+        <v>0</v>
+      </c>
+      <c r="H19" s="98">
         <f t="shared" ref="H19:H32" si="4">SUM(C19:G19)</f>
         <v>20</v>
       </c>
-      <c r="I19" s="99">
+      <c r="I19" s="98">
         <v>7</v>
       </c>
-      <c r="J19" s="99">
+      <c r="J19" s="98">
         <v>13</v>
       </c>
-      <c r="K19" s="99">
+      <c r="K19" s="98">
         <f>SUM(H19:I19)</f>
         <v>27</v>
       </c>
-      <c r="L19" s="100">
+      <c r="L19" s="99">
         <v>11</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="124">
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="165"/>
-    </row>
-    <row r="20" spans="1:27" s="92" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98">
-        <v>0</v>
-      </c>
-      <c r="D20" s="98">
+      <c r="Y19" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="153"/>
+    </row>
+    <row r="20" spans="1:27" s="91" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97">
+        <v>0</v>
+      </c>
+      <c r="D20" s="97">
         <v>5</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="97">
         <v>3</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="97">
         <v>19</v>
       </c>
-      <c r="G20" s="98">
-        <v>0</v>
-      </c>
-      <c r="H20" s="99">
+      <c r="G20" s="97">
+        <v>0</v>
+      </c>
+      <c r="H20" s="98">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I20" s="99">
+      <c r="I20" s="98">
         <v>6</v>
       </c>
-      <c r="J20" s="99">
+      <c r="J20" s="98">
         <v>21</v>
       </c>
-      <c r="K20" s="99">
+      <c r="K20" s="98">
         <f t="shared" ref="K20:K24" si="5">SUM(H20:I20)</f>
         <v>33</v>
       </c>
-      <c r="L20" s="100">
+      <c r="L20" s="99">
         <v>21</v>
       </c>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="124">
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="146"/>
-    </row>
-    <row r="21" spans="1:27" s="92" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98">
-        <v>0</v>
-      </c>
-      <c r="D21" s="98">
+      <c r="Y20" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="138"/>
+    </row>
+    <row r="21" spans="1:27" s="91" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97">
+        <v>0</v>
+      </c>
+      <c r="D21" s="97">
         <v>6</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="97">
         <v>2</v>
       </c>
-      <c r="F21" s="98">
+      <c r="F21" s="97">
         <v>33</v>
       </c>
-      <c r="G21" s="98">
-        <v>0</v>
-      </c>
-      <c r="H21" s="99">
+      <c r="G21" s="97">
+        <v>0</v>
+      </c>
+      <c r="H21" s="98">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="I21" s="99">
+      <c r="I21" s="98">
         <v>16</v>
       </c>
-      <c r="J21" s="99">
+      <c r="J21" s="98">
         <v>26</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K21" s="98">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="L21" s="100">
+      <c r="L21" s="99">
         <v>25</v>
       </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="124">
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="166"/>
-      <c r="AA21" s="155"/>
+      <c r="Y21" s="100">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="147"/>
     </row>
     <row r="22" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98">
-        <v>0</v>
-      </c>
-      <c r="D22" s="98">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97">
+        <v>0</v>
+      </c>
+      <c r="D22" s="97">
         <v>4</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="97">
         <v>2</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="97">
         <v>15</v>
       </c>
-      <c r="G22" s="98">
-        <v>0</v>
-      </c>
-      <c r="H22" s="99">
+      <c r="G22" s="97">
+        <v>0</v>
+      </c>
+      <c r="H22" s="98">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="I22" s="99">
+      <c r="I22" s="98">
         <v>6</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J22" s="98">
         <v>15</v>
       </c>
-      <c r="K22" s="99">
+      <c r="K22" s="98">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="L22" s="100">
+      <c r="L22" s="99">
         <v>15</v>
       </c>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="100"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="122"/>
-      <c r="X22" s="124">
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="140"/>
+      <c r="Y22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="169"/>
+      <c r="AA22" s="137"/>
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98">
-        <v>0</v>
-      </c>
-      <c r="D23" s="98">
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97">
+        <v>0</v>
+      </c>
+      <c r="D23" s="97">
         <v>77</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="97">
         <v>3</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="97">
         <v>28</v>
       </c>
-      <c r="G23" s="98">
-        <v>0</v>
-      </c>
-      <c r="H23" s="99">
+      <c r="G23" s="97">
+        <v>0</v>
+      </c>
+      <c r="H23" s="98">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="I23" s="99">
+      <c r="I23" s="98">
         <v>70</v>
       </c>
-      <c r="J23" s="99">
+      <c r="J23" s="98">
         <v>38</v>
       </c>
-      <c r="K23" s="99">
+      <c r="K23" s="98">
         <v>26</v>
       </c>
-      <c r="L23" s="100">
+      <c r="L23" s="99">
         <v>38</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="122"/>
-      <c r="X23" s="124">
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="159"/>
+      <c r="Y23" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="149"/>
     </row>
     <row r="24" spans="1:27" s="1" customFormat="1" ht="46.5">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98">
-        <v>0</v>
-      </c>
-      <c r="D24" s="98">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97">
+        <v>0</v>
+      </c>
+      <c r="D24" s="97">
         <v>3</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E24" s="97">
         <v>3</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F24" s="97">
         <v>14</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="97">
         <v>139</v>
       </c>
-      <c r="H24" s="99">
+      <c r="H24" s="98">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="I24" s="99">
-        <v>0</v>
-      </c>
-      <c r="J24" s="99">
+      <c r="I24" s="98">
+        <v>0</v>
+      </c>
+      <c r="J24" s="98">
         <v>128</v>
       </c>
-      <c r="K24" s="99">
+      <c r="K24" s="98">
         <f t="shared" si="5"/>
         <v>159</v>
       </c>
-      <c r="L24" s="100">
+      <c r="L24" s="99">
         <v>31</v>
       </c>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="122"/>
-      <c r="X24" s="124">
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="163"/>
-    </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A25" s="96">
-        <v>23</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98">
-        <v>4</v>
-      </c>
-      <c r="E25" s="98">
-        <v>0</v>
-      </c>
-      <c r="F25" s="98">
-        <v>5</v>
-      </c>
-      <c r="G25" s="98">
-        <v>12</v>
-      </c>
-      <c r="H25" s="99">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="I25" s="99">
-        <v>0</v>
-      </c>
-      <c r="J25" s="99">
-        <v>0</v>
-      </c>
-      <c r="K25" s="99">
-        <v>0</v>
-      </c>
-      <c r="L25" s="100">
-        <v>0</v>
-      </c>
-      <c r="M25" s="100">
-        <v>3</v>
-      </c>
-      <c r="N25" s="100">
-        <v>0</v>
-      </c>
-      <c r="O25" s="100">
-        <v>0</v>
-      </c>
-      <c r="P25" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="100">
-        <v>0</v>
-      </c>
-      <c r="R25" s="100">
-        <v>0</v>
-      </c>
-      <c r="S25" s="100">
-        <v>0</v>
-      </c>
-      <c r="T25" s="100">
-        <v>0</v>
-      </c>
-      <c r="U25" s="56">
-        <v>3</v>
-      </c>
-      <c r="V25" s="100">
-        <v>0</v>
-      </c>
-      <c r="W25" s="122">
-        <v>0</v>
-      </c>
-      <c r="X25" s="125">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Y25" s="102"/>
-    </row>
-    <row r="26" spans="1:27" s="1" customFormat="1" ht="184.5" customHeight="1">
-      <c r="A26" s="96">
-        <v>24</v>
-      </c>
-      <c r="B26" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="98">
-        <v>0</v>
-      </c>
-      <c r="D26" s="98">
-        <v>9</v>
-      </c>
-      <c r="E26" s="98">
-        <v>0</v>
-      </c>
-      <c r="F26" s="98">
-        <v>7</v>
-      </c>
-      <c r="G26" s="98">
-        <v>8</v>
-      </c>
-      <c r="H26" s="99">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="I26" s="99">
-        <v>0</v>
-      </c>
-      <c r="J26" s="99">
-        <v>0</v>
-      </c>
-      <c r="K26" s="99">
-        <v>0</v>
-      </c>
-      <c r="L26" s="100">
-        <v>0</v>
-      </c>
-      <c r="M26" s="100">
-        <v>12</v>
-      </c>
-      <c r="N26" s="100">
-        <v>1</v>
-      </c>
-      <c r="O26" s="100">
-        <v>0</v>
-      </c>
-      <c r="P26" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="100">
-        <v>0</v>
-      </c>
-      <c r="R26" s="100">
-        <v>9</v>
-      </c>
-      <c r="S26" s="100">
-        <v>0</v>
-      </c>
-      <c r="T26" s="100">
-        <v>0</v>
-      </c>
-      <c r="U26" s="56">
-        <v>2</v>
-      </c>
-      <c r="V26" s="100">
-        <v>0</v>
-      </c>
-      <c r="W26" s="122">
-        <v>0</v>
-      </c>
-      <c r="X26" s="125">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="Y26" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="142" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" s="1" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A27" s="96">
-        <v>25</v>
-      </c>
-      <c r="B27" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="98">
-        <v>0</v>
-      </c>
-      <c r="D27" s="98">
-        <v>8</v>
-      </c>
-      <c r="E27" s="98">
-        <v>0</v>
-      </c>
-      <c r="F27" s="98">
-        <v>9</v>
-      </c>
-      <c r="G27" s="98">
-        <v>18</v>
-      </c>
-      <c r="H27" s="99">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="I27" s="99">
-        <v>0</v>
-      </c>
-      <c r="J27" s="99">
-        <v>0</v>
-      </c>
-      <c r="K27" s="99">
-        <v>0</v>
-      </c>
-      <c r="L27" s="100">
-        <v>0</v>
-      </c>
-      <c r="M27" s="100">
-        <v>27</v>
-      </c>
-      <c r="N27" s="100">
-        <v>0</v>
-      </c>
-      <c r="O27" s="100">
-        <v>0</v>
-      </c>
-      <c r="P27" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="100">
-        <v>0</v>
-      </c>
-      <c r="R27" s="100">
-        <v>4</v>
-      </c>
-      <c r="S27" s="100">
-        <v>3</v>
-      </c>
-      <c r="T27" s="100">
-        <v>0</v>
-      </c>
-      <c r="U27" s="100">
-        <v>0</v>
-      </c>
-      <c r="V27" s="100">
-        <v>0</v>
-      </c>
-      <c r="W27" s="122">
-        <v>0</v>
-      </c>
-      <c r="X27" s="125">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="Y27" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="143"/>
-    </row>
-    <row r="28" spans="1:27" s="112" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A28" s="106">
-        <v>26</v>
-      </c>
-      <c r="B28" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="108">
-        <v>0</v>
-      </c>
-      <c r="D28" s="108">
-        <v>7</v>
-      </c>
-      <c r="E28" s="108">
-        <v>0</v>
-      </c>
-      <c r="F28" s="108">
-        <v>5</v>
-      </c>
-      <c r="G28" s="108">
-        <v>10</v>
-      </c>
-      <c r="H28" s="109">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="I28" s="109">
-        <v>0</v>
-      </c>
-      <c r="J28" s="109">
-        <v>0</v>
-      </c>
-      <c r="K28" s="109">
-        <v>0</v>
-      </c>
-      <c r="L28" s="110">
-        <v>0</v>
-      </c>
-      <c r="M28" s="110">
-        <v>19</v>
-      </c>
-      <c r="N28" s="110">
-        <v>0</v>
-      </c>
-      <c r="O28" s="110">
-        <v>0</v>
-      </c>
-      <c r="P28" s="110">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="110">
-        <v>0</v>
-      </c>
-      <c r="R28" s="110">
-        <v>4</v>
-      </c>
-      <c r="S28" s="110">
-        <v>2</v>
-      </c>
-      <c r="T28" s="110">
-        <v>0</v>
-      </c>
-      <c r="U28" s="110">
-        <v>0</v>
-      </c>
-      <c r="V28" s="110">
-        <v>0</v>
-      </c>
-      <c r="W28" s="126">
-        <v>0</v>
-      </c>
-      <c r="X28" s="125">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="Y28" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" s="1" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A29" s="96">
-        <v>27</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="98">
-        <v>0</v>
-      </c>
-      <c r="D29" s="98">
-        <v>12</v>
-      </c>
-      <c r="E29" s="98">
-        <v>0</v>
-      </c>
-      <c r="F29" s="98">
-        <v>13</v>
-      </c>
-      <c r="G29" s="98">
-        <v>10</v>
-      </c>
-      <c r="H29" s="99">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="I29" s="99">
-        <v>0</v>
-      </c>
-      <c r="J29" s="99">
-        <v>0</v>
-      </c>
-      <c r="K29" s="99">
-        <v>0</v>
-      </c>
-      <c r="L29" s="100">
-        <v>0</v>
-      </c>
-      <c r="M29" s="100">
-        <v>24</v>
-      </c>
-      <c r="N29" s="100">
-        <v>0</v>
-      </c>
-      <c r="O29" s="100">
-        <v>0</v>
-      </c>
-      <c r="P29" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="127">
-        <v>1</v>
-      </c>
-      <c r="R29" s="100">
-        <v>3</v>
-      </c>
-      <c r="S29" s="100">
-        <v>2</v>
-      </c>
-      <c r="T29" s="100">
-        <v>0</v>
-      </c>
-      <c r="U29" s="100">
-        <v>0</v>
-      </c>
-      <c r="V29" s="100">
-        <v>0</v>
-      </c>
-      <c r="W29" s="122">
-        <v>0</v>
-      </c>
-      <c r="X29" s="125">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="Y29" s="102">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="144" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="1" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A30" s="96">
-        <v>28</v>
-      </c>
-      <c r="B30" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="98">
-        <v>0</v>
-      </c>
-      <c r="D30" s="98">
+      <c r="Y24" s="101">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="151"/>
+    </row>
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="169"/>
+    </row>
+    <row r="26" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="124"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="149"/>
+    </row>
+    <row r="27" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="151"/>
+    </row>
+    <row r="28" spans="1:27" s="111" customFormat="1" ht="46.5">
+      <c r="A28" s="105"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="124"/>
+      <c r="Y28" s="110"/>
+      <c r="Z28" s="170"/>
+    </row>
+    <row r="29" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A29" s="95"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="154"/>
+    </row>
+    <row r="30" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="169"/>
+    </row>
+    <row r="31" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="A31" s="95"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="151"/>
+    </row>
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A32" s="127"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="133"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="168"/>
+    </row>
+    <row r="33" spans="1:26" s="18" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A33" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="98">
-        <v>0</v>
-      </c>
-      <c r="F30" s="98">
-        <v>22</v>
-      </c>
-      <c r="G30" s="98">
-        <v>20</v>
-      </c>
-      <c r="H30" s="99">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="I30" s="99">
-        <v>0</v>
-      </c>
-      <c r="J30" s="99">
-        <v>0</v>
-      </c>
-      <c r="K30" s="99">
-        <v>0</v>
-      </c>
-      <c r="L30" s="100">
-        <v>52</v>
-      </c>
-      <c r="M30" s="100">
-        <v>41</v>
-      </c>
-      <c r="N30" s="100">
-        <v>0</v>
-      </c>
-      <c r="O30" s="100">
-        <v>0</v>
-      </c>
-      <c r="P30" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="100">
-        <v>0</v>
-      </c>
-      <c r="R30" s="100">
-        <v>1</v>
-      </c>
-      <c r="S30" s="100">
-        <v>4</v>
-      </c>
-      <c r="T30" s="100">
-        <v>0</v>
-      </c>
-      <c r="U30" s="100">
-        <v>0</v>
-      </c>
-      <c r="V30" s="100">
-        <v>0</v>
-      </c>
-      <c r="W30" s="122">
-        <v>0</v>
-      </c>
-      <c r="X30" s="125">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="Y30" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" ht="108" customHeight="1">
-      <c r="A31" s="96">
-        <v>29</v>
-      </c>
-      <c r="B31" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="98">
-        <v>0</v>
-      </c>
-      <c r="D31" s="98">
-        <v>7</v>
-      </c>
-      <c r="E31" s="98">
-        <v>0</v>
-      </c>
-      <c r="F31" s="98">
-        <v>7</v>
-      </c>
-      <c r="G31" s="98">
-        <v>18</v>
-      </c>
-      <c r="H31" s="113">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="I31" s="99">
-        <v>0</v>
-      </c>
-      <c r="J31" s="99">
-        <v>0</v>
-      </c>
-      <c r="K31" s="99">
-        <v>0</v>
-      </c>
-      <c r="L31" s="100">
-        <v>33</v>
-      </c>
-      <c r="M31" s="100">
-        <v>27</v>
-      </c>
-      <c r="N31" s="100">
-        <v>0</v>
-      </c>
-      <c r="O31" s="100">
-        <v>0</v>
-      </c>
-      <c r="P31" s="100">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="100">
-        <v>0</v>
-      </c>
-      <c r="R31" s="100">
-        <v>4</v>
-      </c>
-      <c r="S31" s="100">
-        <v>2</v>
-      </c>
-      <c r="T31" s="100">
-        <v>0</v>
-      </c>
-      <c r="U31" s="100">
-        <v>0</v>
-      </c>
-      <c r="V31" s="100">
-        <v>0</v>
-      </c>
-      <c r="W31" s="122">
-        <v>0</v>
-      </c>
-      <c r="X31" s="125">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="Y31" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="141"/>
-    </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="297" customHeight="1" thickBot="1">
-      <c r="A32" s="130">
-        <v>30</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="132">
-        <v>0</v>
-      </c>
-      <c r="D32" s="132">
-        <v>7</v>
-      </c>
-      <c r="E32" s="132">
-        <v>0</v>
-      </c>
-      <c r="F32" s="132">
-        <v>10</v>
-      </c>
-      <c r="G32" s="132">
-        <v>38</v>
-      </c>
-      <c r="H32" s="133">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="I32" s="134">
-        <v>0</v>
-      </c>
-      <c r="J32" s="134">
-        <v>0</v>
-      </c>
-      <c r="K32" s="134">
-        <v>0</v>
-      </c>
-      <c r="L32" s="135">
-        <v>55</v>
-      </c>
-      <c r="M32" s="135">
-        <v>36</v>
-      </c>
-      <c r="N32" s="135">
-        <v>1</v>
-      </c>
-      <c r="O32" s="135">
-        <v>0</v>
-      </c>
-      <c r="P32" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="135">
-        <v>0</v>
-      </c>
-      <c r="R32" s="135">
-        <v>10</v>
-      </c>
-      <c r="S32" s="135">
-        <v>5</v>
-      </c>
-      <c r="T32" s="135">
-        <v>0</v>
-      </c>
-      <c r="U32" s="56">
-        <v>1</v>
-      </c>
-      <c r="V32" s="135">
-        <v>0</v>
-      </c>
-      <c r="W32" s="136">
-        <v>0</v>
-      </c>
-      <c r="X32" s="137">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="Y32" s="138">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="145" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" s="18" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A33" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="54"/>
       <c r="I33" s="55">
         <f>SUM(I31:I32)</f>
         <v>0</v>
       </c>
       <c r="J33" s="55"/>
-      <c r="K33" s="57">
+      <c r="K33" s="56">
         <f t="shared" ref="K33:T33" si="6">SUM(K3:K32)</f>
         <v>587</v>
       </c>
-      <c r="L33" s="69">
+      <c r="L33" s="68">
         <f t="shared" si="6"/>
-        <v>503</v>
-      </c>
-      <c r="M33" s="69">
+        <v>363</v>
+      </c>
+      <c r="M33" s="68">
         <f t="shared" si="6"/>
-        <v>189</v>
-      </c>
-      <c r="N33" s="69">
+        <v>0</v>
+      </c>
+      <c r="N33" s="68">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="O33" s="69">
+        <v>0</v>
+      </c>
+      <c r="O33" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P33" s="69">
+      <c r="P33" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="69">
+      <c r="Q33" s="68">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="69">
+        <v>0</v>
+      </c>
+      <c r="R33" s="68">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="S33" s="69">
+        <v>0</v>
+      </c>
+      <c r="S33" s="68">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="T33" s="69">
+        <v>0</v>
+      </c>
+      <c r="T33" s="68">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U33" s="69">
+      <c r="U33" s="174">
         <f>SUM(U3:U32)</f>
-        <v>6</v>
-      </c>
-      <c r="V33" s="69">
+        <v>0</v>
+      </c>
+      <c r="V33" s="68">
         <f>SUM(V3:V32)</f>
         <v>0</v>
       </c>
-      <c r="W33" s="69">
+      <c r="W33" s="68">
         <f>SUM(W3:W32)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="93">
+      <c r="X33" s="92">
         <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="Y33" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="65">
         <f>SUM(Y3:Y32)</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="94"/>
+      <c r="Z33" s="93"/>
     </row>
     <row r="34" spans="1:26" s="19" customFormat="1" ht="11.1" customHeight="1">
       <c r="C34" s="6"/>
@@ -4190,85 +3578,85 @@
     <row r="37" spans="1:26" ht="45" customHeight="1">
       <c r="C37"/>
       <c r="D37"/>
-      <c r="O37" s="77" t="s">
+      <c r="O37" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="80"/>
-      <c r="W37" s="169">
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="157">
         <f>SUM(M33)</f>
-        <v>189</v>
-      </c>
-      <c r="X37" s="170"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="158"/>
       <c r="Y37" s="42"/>
-      <c r="Z37" s="62"/>
+      <c r="Z37" s="61"/>
     </row>
     <row r="38" spans="1:26" ht="45" customHeight="1">
       <c r="C38"/>
       <c r="D38"/>
-      <c r="O38" s="81" t="s">
+      <c r="O38" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="174">
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="162">
         <f>SUM(N33)</f>
-        <v>2</v>
-      </c>
-      <c r="X38" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="163"/>
       <c r="Y38" s="42"/>
-      <c r="Z38" s="63"/>
+      <c r="Z38" s="62"/>
     </row>
     <row r="39" spans="1:26" ht="45" customHeight="1">
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="O39" s="81" t="s">
+      <c r="O39" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="174">
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="162">
         <f>SUM(O33)</f>
         <v>0</v>
       </c>
-      <c r="X39" s="175"/>
+      <c r="X39" s="163"/>
       <c r="Y39" s="42"/>
-      <c r="Z39" s="64"/>
+      <c r="Z39" s="63"/>
     </row>
     <row r="40" spans="1:26" ht="45" customHeight="1">
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="O40" s="81" t="s">
+      <c r="O40" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="174">
-        <v>0</v>
-      </c>
-      <c r="X40" s="175"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="162">
+        <v>0</v>
+      </c>
+      <c r="X40" s="163"/>
       <c r="Y40" s="42"/>
-      <c r="Z40" s="65"/>
+      <c r="Z40" s="64"/>
     </row>
     <row r="41" spans="1:26" ht="45" customHeight="1">
       <c r="C41" s="33"/>
@@ -4282,59 +3670,59 @@
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="2"/>
-      <c r="O41" s="81" t="s">
+      <c r="O41" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="174">
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="162">
         <f>SUM(Q33)</f>
-        <v>1</v>
-      </c>
-      <c r="X41" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="163"/>
       <c r="Y41" s="42"/>
       <c r="Z41" s="14"/>
     </row>
     <row r="42" spans="1:26" ht="45" customHeight="1">
-      <c r="O42" s="81" t="s">
+      <c r="O42" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="174">
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="162">
         <f>SUM(R33)</f>
-        <v>35</v>
-      </c>
-      <c r="X42" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="163"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="1:26" ht="45" customHeight="1">
-      <c r="O43" s="81" t="s">
+      <c r="O43" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="75"/>
-      <c r="W43" s="174">
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="162">
         <f>SUM(S33)</f>
-        <v>18</v>
-      </c>
-      <c r="X43" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="163"/>
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
@@ -4344,21 +3732,21 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="O44" s="81" t="s">
+      <c r="O44" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73"/>
-      <c r="T44" s="73"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="75"/>
-      <c r="W44" s="174">
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="162">
         <f>SUM(T33)</f>
         <v>0</v>
       </c>
-      <c r="X44" s="175"/>
+      <c r="X44" s="163"/>
       <c r="Y44" s="42"/>
       <c r="Z44" s="14"/>
     </row>
@@ -4368,21 +3756,21 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="O45" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="73"/>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="174">
+      <c r="O45" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="162">
         <f>SUM(U33)</f>
-        <v>6</v>
-      </c>
-      <c r="X45" s="175"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="163"/>
       <c r="Y45" s="42"/>
       <c r="Z45" s="14"/>
     </row>
@@ -4398,21 +3786,21 @@
       <c r="J46" s="10"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
-      <c r="O46" s="81" t="s">
+      <c r="O46" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="73"/>
-      <c r="Q46" s="73"/>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73"/>
-      <c r="T46" s="73"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="178">
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="166">
         <f>SUM(W33)</f>
         <v>0</v>
       </c>
-      <c r="X46" s="179"/>
+      <c r="X46" s="167"/>
       <c r="Y46" s="42"/>
       <c r="Z46" s="15"/>
     </row>
@@ -4430,21 +3818,21 @@
       <c r="L47" s="28"/>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
-      <c r="O47" s="171" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="172"/>
-      <c r="Q47" s="172"/>
-      <c r="R47" s="172"/>
-      <c r="S47" s="172"/>
-      <c r="T47" s="172"/>
-      <c r="U47" s="173"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="176">
+      <c r="O47" s="159" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" s="160"/>
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="164">
         <f>SUM(W37:X46)</f>
-        <v>251</v>
-      </c>
-      <c r="X47" s="177"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="165"/>
       <c r="Z47" s="15"/>
     </row>
     <row r="48" spans="1:26" s="12" customFormat="1" ht="30" customHeight="1">
@@ -4500,9 +3888,9 @@
     <row r="51" spans="2:26" s="12" customFormat="1" ht="409.5">
       <c r="B51" s="32"/>
       <c r="C51" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="58"/>
+        <v>17</v>
+      </c>
+      <c r="D51" s="57"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -4517,9 +3905,9 @@
     <row r="52" spans="2:26" s="12" customFormat="1" ht="270">
       <c r="B52" s="32"/>
       <c r="C52" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="59"/>
+        <v>18</v>
+      </c>
+      <c r="D52" s="58"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -4534,9 +3922,9 @@
     <row r="53" spans="2:26" s="12" customFormat="1" ht="210">
       <c r="B53" s="32"/>
       <c r="C53" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="D53" s="58"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>

--- a/public/templates/reporte.xlsx
+++ b/public/templates/reporte.xlsx
@@ -597,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -730,21 +730,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -981,21 +966,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1120,7 +1090,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1239,16 +1209,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,7 +1233,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,10 +1242,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1284,36 +1254,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,10 +1317,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1371,10 +1341,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1399,14 +1369,14 @@
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,13 +1391,13 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,50 +1406,44 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,63 +1467,13 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1568,17 +1482,55 @@
     <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="56" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="56" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1918,7 +1870,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="W33" sqref="W33"/>
+      <selection pane="bottomLeft" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26.25"/>
@@ -2054,7 +2006,7 @@
       <c r="Y2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="136"/>
+      <c r="Z2" s="134"/>
     </row>
     <row r="3" spans="1:26" s="44" customFormat="1" ht="47.25" thickBot="1">
       <c r="A3" s="87"/>
@@ -2102,10 +2054,10 @@
         <f t="shared" ref="X3:X33" si="1">SUM(M3:W3)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="171"/>
+      <c r="Y3" s="137">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="166"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A4" s="95"/>
@@ -2156,7 +2108,7 @@
       <c r="Y4" s="100">
         <v>0</v>
       </c>
-      <c r="Z4" s="172"/>
+      <c r="Z4" s="151"/>
     </row>
     <row r="5" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A5" s="95"/>
@@ -2309,7 +2261,7 @@
       <c r="Y7" s="101">
         <v>0</v>
       </c>
-      <c r="Z7" s="151"/>
+      <c r="Z7" s="146"/>
     </row>
     <row r="8" spans="1:26" s="103" customFormat="1" ht="47.25" thickBot="1">
       <c r="A8" s="95"/>
@@ -2360,7 +2312,7 @@
       <c r="Y8" s="101">
         <v>0</v>
       </c>
-      <c r="Z8" s="151"/>
+      <c r="Z8" s="146"/>
     </row>
     <row r="9" spans="1:26" s="91" customFormat="1" ht="47.25" thickBot="1">
       <c r="A9" s="95"/>
@@ -2411,7 +2363,7 @@
       <c r="Y9" s="100">
         <v>0</v>
       </c>
-      <c r="Z9" s="149"/>
+      <c r="Z9" s="146"/>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" ht="47.25" thickBot="1">
       <c r="A10" s="95"/>
@@ -2461,58 +2413,58 @@
       <c r="Y10" s="100">
         <v>0</v>
       </c>
-      <c r="Z10" s="169"/>
-    </row>
-    <row r="11" spans="1:26" s="125" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A11" s="145"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="142">
+      <c r="Z10" s="149"/>
+    </row>
+    <row r="11" spans="1:26" s="124" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A11" s="143"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="140">
         <v>1</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="140">
         <v>1</v>
       </c>
-      <c r="E11" s="142">
-        <v>0</v>
-      </c>
-      <c r="F11" s="142">
+      <c r="E11" s="140">
+        <v>0</v>
+      </c>
+      <c r="F11" s="140">
         <v>1</v>
       </c>
-      <c r="G11" s="142">
-        <v>0</v>
-      </c>
-      <c r="H11" s="143">
+      <c r="G11" s="140">
+        <v>0</v>
+      </c>
+      <c r="H11" s="141">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143">
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141">
         <f>SUM(H11:I11)</f>
         <v>3</v>
       </c>
-      <c r="L11" s="144">
+      <c r="L11" s="142">
         <v>3</v>
       </c>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="146"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="142"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="142"/>
+      <c r="T11" s="142"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="144"/>
       <c r="X11" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="140">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="173"/>
+      <c r="Y11" s="138">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="167"/>
     </row>
     <row r="12" spans="1:26" s="102" customFormat="1" ht="47.25" thickBot="1">
       <c r="A12" s="95"/>
@@ -2562,7 +2514,7 @@
       <c r="Y12" s="101">
         <v>0</v>
       </c>
-      <c r="Z12" s="150"/>
+      <c r="Z12" s="149"/>
     </row>
     <row r="13" spans="1:26" s="91" customFormat="1" ht="47.25" thickBot="1">
       <c r="A13" s="95"/>
@@ -2617,7 +2569,7 @@
       <c r="Y13" s="101">
         <v>0</v>
       </c>
-      <c r="Z13" s="151"/>
+      <c r="Z13" s="146"/>
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A14" s="113"/>
@@ -2668,7 +2620,7 @@
       <c r="Y14" s="118">
         <v>0</v>
       </c>
-      <c r="Z14" s="169"/>
+      <c r="Z14" s="149"/>
     </row>
     <row r="15" spans="1:26" s="3" customFormat="1" ht="47.25" thickBot="1">
       <c r="A15" s="119"/>
@@ -2723,7 +2675,7 @@
       <c r="Y15" s="122">
         <v>0</v>
       </c>
-      <c r="Z15" s="152"/>
+      <c r="Z15" s="147"/>
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A16" s="95"/>
@@ -2778,7 +2730,7 @@
       <c r="Y16" s="100">
         <v>0</v>
       </c>
-      <c r="Z16" s="149"/>
+      <c r="Z16" s="146"/>
     </row>
     <row r="17" spans="1:27" s="3" customFormat="1" ht="47.25" thickBot="1">
       <c r="A17" s="95"/>
@@ -2829,58 +2781,58 @@
       <c r="Y17" s="100">
         <v>0</v>
       </c>
-      <c r="Z17" s="151"/>
-    </row>
-    <row r="18" spans="1:27" s="126" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142">
+      <c r="Z17" s="146"/>
+    </row>
+    <row r="18" spans="1:27" s="125" customFormat="1" ht="47.25" thickBot="1">
+      <c r="A18" s="143"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="140">
         <v>1</v>
       </c>
-      <c r="D18" s="142">
-        <v>0</v>
-      </c>
-      <c r="E18" s="142">
-        <v>0</v>
-      </c>
-      <c r="F18" s="142">
-        <v>0</v>
-      </c>
-      <c r="G18" s="142">
-        <v>0</v>
-      </c>
-      <c r="H18" s="143">
+      <c r="D18" s="140">
+        <v>0</v>
+      </c>
+      <c r="E18" s="140">
+        <v>0</v>
+      </c>
+      <c r="F18" s="140">
+        <v>0</v>
+      </c>
+      <c r="G18" s="140">
+        <v>0</v>
+      </c>
+      <c r="H18" s="141">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143">
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141">
         <f>SUM(H18:I18)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="144">
+      <c r="L18" s="142">
         <v>1</v>
       </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="144"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="144"/>
-      <c r="U18" s="144"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="146"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="142"/>
+      <c r="T18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="144"/>
       <c r="X18" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="140">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="173"/>
+      <c r="Y18" s="138">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="167"/>
     </row>
     <row r="19" spans="1:27" s="104" customFormat="1" ht="47.25" thickBot="1">
       <c r="A19" s="95"/>
@@ -2901,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="98">
-        <f t="shared" ref="H19:H32" si="4">SUM(C19:G19)</f>
+        <f t="shared" ref="H19:H24" si="4">SUM(C19:G19)</f>
         <v>20</v>
       </c>
       <c r="I19" s="98">
@@ -2935,7 +2887,7 @@
       <c r="Y19" s="100">
         <v>0</v>
       </c>
-      <c r="Z19" s="153"/>
+      <c r="Z19" s="147"/>
     </row>
     <row r="20" spans="1:27" s="91" customFormat="1" ht="47.25" thickBot="1">
       <c r="A20" s="95"/>
@@ -2990,8 +2942,8 @@
       <c r="Y20" s="100">
         <v>0</v>
       </c>
-      <c r="Z20" s="149"/>
-      <c r="AA20" s="138"/>
+      <c r="Z20" s="146"/>
+      <c r="AA20" s="136"/>
     </row>
     <row r="21" spans="1:27" s="91" customFormat="1" ht="47.25" thickBot="1">
       <c r="A21" s="95"/>
@@ -3046,8 +2998,8 @@
       <c r="Y21" s="100">
         <v>0</v>
       </c>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="147"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="145"/>
     </row>
     <row r="22" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A22" s="95"/>
@@ -3102,8 +3054,8 @@
       <c r="Y22" s="101">
         <v>0</v>
       </c>
-      <c r="Z22" s="169"/>
-      <c r="AA22" s="137"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="135"/>
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A23" s="95"/>
@@ -3157,9 +3109,9 @@
       <c r="Y23" s="101">
         <v>0</v>
       </c>
-      <c r="Z23" s="149"/>
-    </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z23" s="146"/>
+    </row>
+    <row r="24" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A24" s="95"/>
       <c r="B24" s="96"/>
       <c r="C24" s="97">
@@ -3212,9 +3164,9 @@
       <c r="Y24" s="101">
         <v>0</v>
       </c>
-      <c r="Z24" s="151"/>
-    </row>
-    <row r="25" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z24" s="146"/>
+    </row>
+    <row r="25" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A25" s="95"/>
       <c r="B25" s="96"/>
       <c r="C25" s="97"/>
@@ -3238,11 +3190,14 @@
       <c r="U25" s="98"/>
       <c r="V25" s="99"/>
       <c r="W25" s="121"/>
-      <c r="X25" s="124"/>
+      <c r="X25" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y25" s="101"/>
-      <c r="Z25" s="169"/>
-    </row>
-    <row r="26" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z25" s="149"/>
+    </row>
+    <row r="26" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A26" s="95"/>
       <c r="B26" s="96"/>
       <c r="C26" s="97"/>
@@ -3266,11 +3221,14 @@
       <c r="U26" s="98"/>
       <c r="V26" s="99"/>
       <c r="W26" s="121"/>
-      <c r="X26" s="124"/>
+      <c r="X26" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y26" s="101"/>
-      <c r="Z26" s="149"/>
-    </row>
-    <row r="27" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z26" s="146"/>
+    </row>
+    <row r="27" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A27" s="95"/>
       <c r="B27" s="96"/>
       <c r="C27" s="97"/>
@@ -3294,11 +3252,14 @@
       <c r="U27" s="99"/>
       <c r="V27" s="99"/>
       <c r="W27" s="121"/>
-      <c r="X27" s="124"/>
+      <c r="X27" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y27" s="100"/>
-      <c r="Z27" s="151"/>
-    </row>
-    <row r="28" spans="1:27" s="111" customFormat="1" ht="46.5">
+      <c r="Z27" s="146"/>
+    </row>
+    <row r="28" spans="1:27" s="111" customFormat="1" ht="47.25" thickBot="1">
       <c r="A28" s="105"/>
       <c r="B28" s="106"/>
       <c r="C28" s="107"/>
@@ -3322,11 +3283,14 @@
       <c r="U28" s="99"/>
       <c r="V28" s="99"/>
       <c r="W28" s="121"/>
-      <c r="X28" s="124"/>
+      <c r="X28" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y28" s="110"/>
-      <c r="Z28" s="170"/>
-    </row>
-    <row r="29" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z28" s="150"/>
+    </row>
+    <row r="29" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A29" s="95"/>
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
@@ -3350,11 +3314,14 @@
       <c r="U29" s="99"/>
       <c r="V29" s="99"/>
       <c r="W29" s="121"/>
-      <c r="X29" s="124"/>
+      <c r="X29" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y29" s="101"/>
-      <c r="Z29" s="154"/>
-    </row>
-    <row r="30" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z29" s="148"/>
+    </row>
+    <row r="30" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A30" s="95"/>
       <c r="B30" s="96"/>
       <c r="C30" s="97"/>
@@ -3378,11 +3345,14 @@
       <c r="U30" s="99"/>
       <c r="V30" s="99"/>
       <c r="W30" s="121"/>
-      <c r="X30" s="124"/>
+      <c r="X30" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y30" s="100"/>
-      <c r="Z30" s="169"/>
-    </row>
-    <row r="31" spans="1:27" s="1" customFormat="1" ht="46.5">
+      <c r="Z30" s="149"/>
+    </row>
+    <row r="31" spans="1:27" s="1" customFormat="1" ht="47.25" thickBot="1">
       <c r="A31" s="95"/>
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
@@ -3406,48 +3376,54 @@
       <c r="U31" s="99"/>
       <c r="V31" s="99"/>
       <c r="W31" s="121"/>
-      <c r="X31" s="124"/>
+      <c r="X31" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="Y31" s="100"/>
-      <c r="Z31" s="151"/>
+      <c r="Z31" s="146"/>
     </row>
     <row r="32" spans="1:27" s="3" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A32" s="127"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
+      <c r="A32" s="126"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="131"/>
+      <c r="O32" s="131"/>
+      <c r="P32" s="131"/>
+      <c r="Q32" s="131"/>
+      <c r="R32" s="131"/>
+      <c r="S32" s="131"/>
+      <c r="T32" s="131"/>
       <c r="U32" s="116"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="135"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="133"/>
       <c r="Z32" s="168"/>
     </row>
     <row r="33" spans="1:26" s="18" customFormat="1" ht="47.25" thickBot="1">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="54"/>
       <c r="I33" s="55">
         <f>SUM(I31:I32)</f>
@@ -3494,7 +3470,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U33" s="174">
+      <c r="U33" s="152">
         <f>SUM(U3:U32)</f>
         <v>0</v>
       </c>
@@ -3588,11 +3564,11 @@
       <c r="T37" s="77"/>
       <c r="U37" s="78"/>
       <c r="V37" s="79"/>
-      <c r="W37" s="157">
+      <c r="W37" s="155">
         <f>SUM(M33)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="158"/>
+      <c r="X37" s="156"/>
       <c r="Y37" s="42"/>
       <c r="Z37" s="61"/>
     </row>
@@ -3609,11 +3585,11 @@
       <c r="T38" s="72"/>
       <c r="U38" s="73"/>
       <c r="V38" s="74"/>
-      <c r="W38" s="162">
+      <c r="W38" s="160">
         <f>SUM(N33)</f>
         <v>0</v>
       </c>
-      <c r="X38" s="163"/>
+      <c r="X38" s="161"/>
       <c r="Y38" s="42"/>
       <c r="Z38" s="62"/>
     </row>
@@ -3630,11 +3606,11 @@
       <c r="T39" s="72"/>
       <c r="U39" s="73"/>
       <c r="V39" s="74"/>
-      <c r="W39" s="162">
+      <c r="W39" s="160">
         <f>SUM(O33)</f>
         <v>0</v>
       </c>
-      <c r="X39" s="163"/>
+      <c r="X39" s="161"/>
       <c r="Y39" s="42"/>
       <c r="Z39" s="63"/>
     </row>
@@ -3651,10 +3627,10 @@
       <c r="T40" s="72"/>
       <c r="U40" s="73"/>
       <c r="V40" s="74"/>
-      <c r="W40" s="162">
-        <v>0</v>
-      </c>
-      <c r="X40" s="163"/>
+      <c r="W40" s="160">
+        <v>0</v>
+      </c>
+      <c r="X40" s="161"/>
       <c r="Y40" s="42"/>
       <c r="Z40" s="64"/>
     </row>
@@ -3680,11 +3656,11 @@
       <c r="T41" s="72"/>
       <c r="U41" s="73"/>
       <c r="V41" s="74"/>
-      <c r="W41" s="162">
+      <c r="W41" s="160">
         <f>SUM(Q33)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="163"/>
+      <c r="X41" s="161"/>
       <c r="Y41" s="42"/>
       <c r="Z41" s="14"/>
     </row>
@@ -3699,11 +3675,11 @@
       <c r="T42" s="72"/>
       <c r="U42" s="73"/>
       <c r="V42" s="74"/>
-      <c r="W42" s="162">
+      <c r="W42" s="160">
         <f>SUM(R33)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="163"/>
+      <c r="X42" s="161"/>
       <c r="Y42" s="42"/>
       <c r="Z42" s="14"/>
     </row>
@@ -3718,11 +3694,11 @@
       <c r="T43" s="72"/>
       <c r="U43" s="73"/>
       <c r="V43" s="74"/>
-      <c r="W43" s="162">
+      <c r="W43" s="160">
         <f>SUM(S33)</f>
         <v>0</v>
       </c>
-      <c r="X43" s="163"/>
+      <c r="X43" s="161"/>
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
@@ -3742,11 +3718,11 @@
       <c r="T44" s="72"/>
       <c r="U44" s="73"/>
       <c r="V44" s="74"/>
-      <c r="W44" s="162">
+      <c r="W44" s="160">
         <f>SUM(T33)</f>
         <v>0</v>
       </c>
-      <c r="X44" s="163"/>
+      <c r="X44" s="161"/>
       <c r="Y44" s="42"/>
       <c r="Z44" s="14"/>
     </row>
@@ -3766,11 +3742,11 @@
       <c r="T45" s="72"/>
       <c r="U45" s="73"/>
       <c r="V45" s="74"/>
-      <c r="W45" s="162">
+      <c r="W45" s="160">
         <f>SUM(U33)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="163"/>
+      <c r="X45" s="161"/>
       <c r="Y45" s="42"/>
       <c r="Z45" s="14"/>
     </row>
@@ -3796,11 +3772,11 @@
       <c r="T46" s="72"/>
       <c r="U46" s="70"/>
       <c r="V46" s="71"/>
-      <c r="W46" s="166">
+      <c r="W46" s="164">
         <f>SUM(W33)</f>
         <v>0</v>
       </c>
-      <c r="X46" s="167"/>
+      <c r="X46" s="165"/>
       <c r="Y46" s="42"/>
       <c r="Z46" s="15"/>
     </row>
@@ -3818,21 +3794,21 @@
       <c r="L47" s="28"/>
       <c r="M47" s="31"/>
       <c r="N47" s="31"/>
-      <c r="O47" s="159" t="s">
+      <c r="O47" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="160"/>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="161"/>
+      <c r="P47" s="158"/>
+      <c r="Q47" s="158"/>
+      <c r="R47" s="158"/>
+      <c r="S47" s="158"/>
+      <c r="T47" s="158"/>
+      <c r="U47" s="159"/>
       <c r="V47" s="75"/>
-      <c r="W47" s="164">
+      <c r="W47" s="162">
         <f>SUM(W37:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="165"/>
+      <c r="X47" s="163"/>
       <c r="Z47" s="15"/>
     </row>
     <row r="48" spans="1:26" s="12" customFormat="1" ht="30" customHeight="1">
